--- a/ROIs and factors all regions.xlsx
+++ b/ROIs and factors all regions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.browne\Documents\Blueprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FA9AD5-34D9-4BC2-96E0-DC778AC65EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AEF045-A954-4767-ACCC-8D5462C1BFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4793CDEF-7E31-40C8-918D-BBDA82C5E246}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{4793CDEF-7E31-40C8-918D-BBDA82C5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="127">
   <si>
     <t>Region</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Supermarkets</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +3027,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3035,7 +3038,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3849,7 +3852,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,7 +3863,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
